--- a/Outlier_stuff_isotherm_analysis/all_8000_outliers/isotherm/1423-desorption.xlsx
+++ b/Outlier_stuff_isotherm_analysis/all_8000_outliers/isotherm/1423-desorption.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Grad School\Tensorflow_Example\Playing_with_data\all_8000_outliers\isotherm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Grad School\Tensorflow_Example\Outlier_stuff_isotherm_analysis\all_8000_outliers\isotherm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6536EF3A-7881-495C-B2F7-48B57B0B5B97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BD1681-D82F-489E-87C1-FD4668EB4870}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5930" yWindow="2620" windowWidth="9950" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="340" yWindow="5190" windowWidth="9950" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,6 +105,74 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Over-Predicted</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>: 1423</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32379870451335874"/>
+          <c:y val="9.2592592592592587E-3"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
